--- a/image/capabilitystatement.xlsx
+++ b/image/capabilitystatement.xlsx
@@ -1817,45 +1817,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.84375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="56.91796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="58.15234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/capabilitystatement.xlsx
+++ b/image/capabilitystatement.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="537">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -362,10 +362,6 @@
   </si>
   <si>
     <t>CapabilityStatement.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the capability statement</t>
@@ -1817,45 +1813,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.84375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.6640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="58.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="56.91796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3114,16 +3110,16 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3191,10 +3187,10 @@
         <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -3202,7 +3198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3225,19 +3221,19 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -3286,7 +3282,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -3295,7 +3291,7 @@
         <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
@@ -3315,7 +3311,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3338,16 +3334,16 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3397,7 +3393,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3415,7 +3411,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -3426,7 +3422,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3452,13 +3448,13 @@
         <v>68</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3484,52 +3480,52 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -3537,7 +3533,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3560,19 +3556,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3621,7 +3617,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3639,10 +3635,10 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3650,11 +3646,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3673,16 +3669,16 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3732,7 +3728,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -3750,10 +3746,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3761,7 +3757,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3784,19 +3780,19 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3845,7 +3841,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3863,10 +3859,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3874,7 +3870,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3897,16 +3893,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3956,7 +3952,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3974,7 +3970,7 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3985,7 +3981,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4008,16 +4004,16 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4067,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -4076,16 +4072,16 @@
         <v>49</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -4096,7 +4092,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4119,19 +4115,19 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -4180,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -4198,7 +4194,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -4209,7 +4205,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4232,16 +4228,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4267,14 +4263,14 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -4309,7 +4305,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -4320,7 +4316,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4343,16 +4339,16 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4402,7 +4398,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4420,22 +4416,22 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4454,17 +4450,17 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4513,7 +4509,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4531,18 +4527,18 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4568,14 +4564,14 @@
         <v>68</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4600,40 +4596,40 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -4653,7 +4649,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4676,16 +4672,16 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4735,7 +4731,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4764,7 +4760,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4787,16 +4783,16 @@
         <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4846,7 +4842,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4875,7 +4871,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4898,13 +4894,13 @@
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4955,7 +4951,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4964,10 +4960,10 @@
         <v>49</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4984,7 +4980,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5007,13 +5003,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5064,7 +5060,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -5093,7 +5089,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5122,7 +5118,7 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>97</v>
@@ -5175,7 +5171,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5204,11 +5200,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5230,10 +5226,10 @@
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
@@ -5288,7 +5284,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5317,7 +5313,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5340,13 +5336,13 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5397,7 +5393,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>49</v>
@@ -5426,7 +5422,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5449,16 +5445,16 @@
         <v>50</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5508,7 +5504,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5537,7 +5533,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5560,13 +5556,13 @@
         <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5617,7 +5613,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5646,7 +5642,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5669,13 +5665,13 @@
         <v>50</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5726,7 +5722,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5735,10 +5731,10 @@
         <v>49</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5755,7 +5751,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5778,13 +5774,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5835,7 +5831,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5893,7 +5889,7 @@
         <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>97</v>
@@ -5946,7 +5942,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5975,11 +5971,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6001,10 +5997,10 @@
         <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>97</v>
@@ -6059,7 +6055,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -6088,7 +6084,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6111,13 +6107,13 @@
         <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6168,7 +6164,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>49</v>
@@ -6197,7 +6193,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6220,13 +6216,13 @@
         <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6277,7 +6273,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6306,7 +6302,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6329,13 +6325,13 @@
         <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6386,7 +6382,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6415,7 +6411,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6441,13 +6437,13 @@
         <v>68</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6473,14 +6469,14 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6497,7 +6493,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>49</v>
@@ -6526,7 +6522,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6552,13 +6548,13 @@
         <v>68</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6584,14 +6580,14 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6608,7 +6604,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>49</v>
@@ -6637,7 +6633,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6663,13 +6659,13 @@
         <v>68</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6695,31 +6691,31 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6748,7 +6744,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6771,13 +6767,13 @@
         <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6828,7 +6824,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6857,7 +6853,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6880,16 +6876,16 @@
         <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6939,7 +6935,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6948,10 +6944,10 @@
         <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>40</v>
@@ -6968,7 +6964,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6991,13 +6987,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7048,7 +7044,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7077,7 +7073,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7106,7 +7102,7 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>97</v>
@@ -7159,7 +7155,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7188,11 +7184,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7214,10 +7210,10 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>97</v>
@@ -7272,7 +7268,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7301,7 +7297,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7327,10 +7323,10 @@
         <v>68</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7357,14 +7353,14 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>297</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
@@ -7381,7 +7377,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>49</v>
@@ -7410,7 +7406,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7433,13 +7429,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7490,7 +7486,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7519,7 +7515,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7542,13 +7538,13 @@
         <v>50</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7599,7 +7595,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7611,7 +7607,7 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -7628,7 +7624,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7651,13 +7647,13 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7708,7 +7704,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7737,7 +7733,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7766,7 +7762,7 @@
         <v>95</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>97</v>
@@ -7819,7 +7815,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7848,11 +7844,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7874,10 +7870,10 @@
         <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>97</v>
@@ -7932,7 +7928,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7961,7 +7957,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7984,16 +7980,16 @@
         <v>50</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8043,7 +8039,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8072,7 +8068,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8095,13 +8091,13 @@
         <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8128,14 +8124,14 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
       </c>
@@ -8152,7 +8148,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8181,7 +8177,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8204,13 +8200,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8261,7 +8257,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8290,7 +8286,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8313,16 +8309,16 @@
         <v>50</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8372,7 +8368,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8384,7 +8380,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -8401,7 +8397,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8424,13 +8420,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8481,7 +8477,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8510,7 +8506,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8539,7 +8535,7 @@
         <v>95</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>97</v>
@@ -8592,7 +8588,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8621,11 +8617,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8647,10 +8643,10 @@
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>97</v>
@@ -8705,7 +8701,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8734,7 +8730,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8760,10 +8756,10 @@
         <v>68</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8790,14 +8786,14 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8814,7 +8810,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>49</v>
@@ -8843,7 +8839,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8866,16 +8862,16 @@
         <v>50</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8925,7 +8921,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8954,7 +8950,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8977,16 +8973,16 @@
         <v>50</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9036,7 +9032,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9065,7 +9061,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9088,13 +9084,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9145,7 +9141,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9174,7 +9170,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9197,16 +9193,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9256,7 +9252,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9268,7 +9264,7 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
@@ -9285,7 +9281,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9308,13 +9304,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9365,7 +9361,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9394,7 +9390,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9423,7 +9419,7 @@
         <v>95</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>97</v>
@@ -9476,7 +9472,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9505,11 +9501,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9531,10 +9527,10 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>97</v>
@@ -9589,7 +9585,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9618,7 +9614,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9644,10 +9640,10 @@
         <v>68</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9674,14 +9670,14 @@
         <v>40</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>40</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>49</v>
@@ -9727,7 +9723,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9750,17 +9746,17 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9809,7 +9805,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9838,7 +9834,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9864,13 +9860,13 @@
         <v>68</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9896,14 +9892,14 @@
         <v>40</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9920,7 +9916,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9949,7 +9945,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9972,16 +9968,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10031,7 +10027,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -10060,7 +10056,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10083,16 +10079,16 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10142,7 +10138,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10171,7 +10167,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10194,16 +10190,16 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10253,7 +10249,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -10282,7 +10278,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10308,13 +10304,13 @@
         <v>68</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10340,13 +10336,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10364,7 +10360,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10393,7 +10389,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10416,16 +10412,16 @@
         <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10475,7 +10471,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10504,7 +10500,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10530,13 +10526,13 @@
         <v>68</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10562,13 +10558,13 @@
         <v>40</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>40</v>
@@ -10586,7 +10582,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10615,7 +10611,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10641,10 +10637,10 @@
         <v>68</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10671,14 +10667,14 @@
         <v>40</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>40</v>
       </c>
@@ -10695,7 +10691,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10724,7 +10720,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10747,16 +10743,16 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10806,7 +10802,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10835,7 +10831,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10858,16 +10854,16 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10917,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -10946,7 +10942,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10969,16 +10965,16 @@
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11028,7 +11024,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11040,7 +11036,7 @@
         <v>40</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>40</v>
@@ -11057,7 +11053,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11080,13 +11076,13 @@
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11137,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11166,7 +11162,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11195,7 +11191,7 @@
         <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M85" t="s" s="2">
         <v>97</v>
@@ -11248,7 +11244,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11277,11 +11273,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11303,10 +11299,10 @@
         <v>94</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>97</v>
@@ -11361,7 +11357,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11390,7 +11386,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11413,16 +11409,16 @@
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11472,7 +11468,7 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>49</v>
@@ -11501,7 +11497,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11524,16 +11520,16 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11583,7 +11579,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11612,7 +11608,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11638,13 +11634,13 @@
         <v>68</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11670,14 +11666,14 @@
         <v>40</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>40</v>
       </c>
@@ -11694,7 +11690,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>49</v>
@@ -11723,7 +11719,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11746,13 +11742,13 @@
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11803,7 +11799,7 @@
         <v>40</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -11832,7 +11828,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11855,16 +11851,16 @@
         <v>50</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11914,7 +11910,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11926,7 +11922,7 @@
         <v>40</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>40</v>
@@ -11943,7 +11939,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11966,13 +11962,13 @@
         <v>40</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12023,7 +12019,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -12052,7 +12048,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12081,7 +12077,7 @@
         <v>95</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>97</v>
@@ -12134,7 +12130,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12163,11 +12159,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12189,10 +12185,10 @@
         <v>94</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>97</v>
@@ -12247,7 +12243,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12276,7 +12272,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12299,16 +12295,16 @@
         <v>50</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12358,7 +12354,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>49</v>
@@ -12387,7 +12383,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12410,16 +12406,16 @@
         <v>50</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K96" t="s" s="2">
+      <c r="L96" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12469,7 +12465,7 @@
         <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>49</v>
@@ -12498,7 +12494,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12521,13 +12517,13 @@
         <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12578,7 +12574,7 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -12607,7 +12603,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12630,13 +12626,13 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12687,7 +12683,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12699,7 +12695,7 @@
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>40</v>
@@ -12716,7 +12712,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12739,13 +12735,13 @@
         <v>40</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12796,7 +12792,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12825,7 +12821,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12854,7 +12850,7 @@
         <v>95</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>97</v>
@@ -12907,7 +12903,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12936,11 +12932,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12962,10 +12958,10 @@
         <v>94</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>97</v>
@@ -13020,7 +13016,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -13049,7 +13045,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13075,10 +13071,10 @@
         <v>68</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13105,14 +13101,14 @@
         <v>40</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y102" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z102" t="s" s="2">
         <v>40</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>49</v>
@@ -13158,7 +13154,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13181,13 +13177,13 @@
         <v>40</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13238,7 +13234,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13267,7 +13263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13293,13 +13289,13 @@
         <v>40</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13349,7 +13345,7 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
@@ -13378,7 +13374,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13404,13 +13400,13 @@
         <v>40</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
@@ -13460,7 +13456,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13489,7 +13485,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13512,16 +13508,16 @@
         <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="K106" t="s" s="2">
+      <c r="L106" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13571,7 +13567,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
@@ -13600,7 +13596,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13623,16 +13619,16 @@
         <v>50</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13682,7 +13678,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -13691,10 +13687,10 @@
         <v>42</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>40</v>
@@ -13711,7 +13707,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13734,13 +13730,13 @@
         <v>40</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13791,7 +13787,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -13820,7 +13816,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13849,7 +13845,7 @@
         <v>95</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>97</v>
@@ -13902,7 +13898,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13931,11 +13927,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13957,10 +13953,10 @@
         <v>94</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>97</v>
@@ -14015,7 +14011,7 @@
         <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -14044,11 +14040,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14067,13 +14063,13 @@
         <v>40</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14124,7 +14120,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -14136,7 +14132,7 @@
         <v>40</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>40</v>
@@ -14153,7 +14149,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14176,13 +14172,13 @@
         <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14233,7 +14229,7 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -14262,7 +14258,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14291,7 +14287,7 @@
         <v>95</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>97</v>
@@ -14344,7 +14340,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -14373,11 +14369,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14399,10 +14395,10 @@
         <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>97</v>
@@ -14457,7 +14453,7 @@
         <v>40</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -14486,7 +14482,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14509,13 +14505,13 @@
         <v>40</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14542,14 +14538,14 @@
         <v>40</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="Z115" t="s" s="2">
         <v>40</v>
       </c>
@@ -14566,7 +14562,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>49</v>
@@ -14595,7 +14591,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14618,13 +14614,13 @@
         <v>40</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14675,7 +14671,7 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>49</v>
@@ -14704,7 +14700,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14727,16 +14723,16 @@
         <v>40</v>
       </c>
       <c r="J117" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K117" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="K117" t="s" s="2">
+      <c r="L117" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -14786,7 +14782,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14815,7 +14811,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14838,13 +14834,13 @@
         <v>40</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -14895,7 +14891,7 @@
         <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
@@ -14924,7 +14920,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14947,16 +14943,16 @@
         <v>50</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -15006,7 +15002,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -15018,7 +15014,7 @@
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>40</v>
@@ -15035,7 +15031,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15058,13 +15054,13 @@
         <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15115,7 +15111,7 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -15144,7 +15140,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15173,7 +15169,7 @@
         <v>95</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>97</v>
@@ -15226,7 +15222,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15255,11 +15251,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15281,10 +15277,10 @@
         <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>97</v>
@@ -15339,7 +15335,7 @@
         <v>40</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -15368,7 +15364,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15394,10 +15390,10 @@
         <v>68</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15424,14 +15420,14 @@
         <v>40</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X123" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Y123" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Y123" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="Z123" t="s" s="2">
         <v>40</v>
       </c>
@@ -15448,7 +15444,7 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>49</v>
@@ -15477,7 +15473,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15500,13 +15496,13 @@
         <v>50</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="K124" t="s" s="2">
+      <c r="L124" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15557,7 +15553,7 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>49</v>
@@ -15586,7 +15582,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15609,13 +15605,13 @@
         <v>50</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15666,7 +15662,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15675,10 +15671,10 @@
         <v>42</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>40</v>
@@ -15695,7 +15691,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15718,13 +15714,13 @@
         <v>40</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15775,7 +15771,7 @@
         <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -15804,7 +15800,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15833,7 +15829,7 @@
         <v>95</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>97</v>
@@ -15886,7 +15882,7 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
@@ -15915,11 +15911,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15941,10 +15937,10 @@
         <v>94</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>97</v>
@@ -15999,7 +15995,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -16028,7 +16024,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16054,10 +16050,10 @@
         <v>68</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -16084,14 +16080,14 @@
         <v>40</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>40</v>
       </c>
@@ -16108,7 +16104,7 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>49</v>
@@ -16137,7 +16133,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16160,13 +16156,13 @@
         <v>40</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -16217,7 +16213,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -16246,7 +16242,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16269,16 +16265,16 @@
         <v>50</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -16328,7 +16324,7 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>49</v>
